--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 3 (37, 24, 6, 54, 21)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(37, 24, 6, 54, 21)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>8.13316878401597E-07</v>
+        <v>9.843764488968567E-08</v>
       </c>
       <c r="E2">
-        <v>8.13316878401597E-07</v>
+        <v>9.843764488968567E-08</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999878078</v>
+        <v>0.9999999998453513</v>
       </c>
       <c r="E3">
-        <v>0.9999999999878078</v>
+        <v>0.9999999998453513</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0001067628517921289</v>
+        <v>0.007991009692874508</v>
       </c>
       <c r="E4">
-        <v>0.0001067628517921289</v>
+        <v>0.007991009692874508</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.678791788032141E-06</v>
+        <v>0.002293210012805644</v>
       </c>
       <c r="E5">
-        <v>2.678791788032141E-06</v>
+        <v>0.002293210012805644</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0006156334660810826</v>
+        <v>1.652004254434257E-05</v>
       </c>
       <c r="E6">
-        <v>0.0006156334660810826</v>
+        <v>1.652004254434257E-05</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9999999999864893</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.351074807587338E-11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.004783864491408E-12</v>
+        <v>2.336460184481626E-09</v>
       </c>
       <c r="E8">
-        <v>0.9999999999989952</v>
+        <v>0.9999999976635399</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.225501878237634E-10</v>
+        <v>1.707736348573142E-09</v>
       </c>
       <c r="E9">
-        <v>0.9999999993774498</v>
+        <v>0.9999999982922636</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.004864417265459306</v>
+        <v>6.342297046439087E-11</v>
       </c>
       <c r="E10">
-        <v>0.9951355827345407</v>
+        <v>0.9999999999365771</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.022322678602062E-06</v>
+        <v>0.07513236942895306</v>
       </c>
       <c r="E11">
-        <v>0.9999989776773214</v>
+        <v>0.9248676305710469</v>
       </c>
       <c r="F11">
-        <v>9.307363510131836</v>
+        <v>8.873262405395508</v>
       </c>
       <c r="G11">
         <v>0.5</v>
